--- a/ode_pve/D.xlsx
+++ b/ode_pve/D.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="354">
   <si>
     <t>Li Fraction</t>
   </si>
@@ -35,6 +37,1069 @@
   </si>
   <si>
     <t>Li Fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>B37</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>B41</t>
+  </si>
+  <si>
+    <t>B42</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>B45</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>B47</t>
+  </si>
+  <si>
+    <t>B48</t>
+  </si>
+  <si>
+    <t>B49</t>
+  </si>
+  <si>
+    <t>B50</t>
+  </si>
+  <si>
+    <t>B51</t>
+  </si>
+  <si>
+    <t>B52</t>
+  </si>
+  <si>
+    <t>B53</t>
+  </si>
+  <si>
+    <t>B54</t>
+  </si>
+  <si>
+    <t>B55</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>B57</t>
+  </si>
+  <si>
+    <t>B58</t>
+  </si>
+  <si>
+    <t>B59</t>
+  </si>
+  <si>
+    <t>B60</t>
+  </si>
+  <si>
+    <t>B61</t>
+  </si>
+  <si>
+    <t>B62</t>
+  </si>
+  <si>
+    <t>B63</t>
+  </si>
+  <si>
+    <t>B64</t>
+  </si>
+  <si>
+    <t>B65</t>
+  </si>
+  <si>
+    <t>B66</t>
+  </si>
+  <si>
+    <t>B67</t>
+  </si>
+  <si>
+    <t>B68</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>B70</t>
+  </si>
+  <si>
+    <t>B71</t>
+  </si>
+  <si>
+    <t>B72</t>
+  </si>
+  <si>
+    <t>B73</t>
+  </si>
+  <si>
+    <t>B74</t>
+  </si>
+  <si>
+    <t>B75</t>
+  </si>
+  <si>
+    <t>B76</t>
+  </si>
+  <si>
+    <t>B77</t>
+  </si>
+  <si>
+    <t>B78</t>
+  </si>
+  <si>
+    <t>B79</t>
+  </si>
+  <si>
+    <t>B80</t>
+  </si>
+  <si>
+    <t>B81</t>
+  </si>
+  <si>
+    <t>B82</t>
+  </si>
+  <si>
+    <t>B83</t>
+  </si>
+  <si>
+    <t>B84</t>
+  </si>
+  <si>
+    <t>B85</t>
+  </si>
+  <si>
+    <t>B86</t>
+  </si>
+  <si>
+    <t>B87</t>
+  </si>
+  <si>
+    <t>B88</t>
+  </si>
+  <si>
+    <t>B89</t>
+  </si>
+  <si>
+    <t>B90</t>
+  </si>
+  <si>
+    <t>B91</t>
+  </si>
+  <si>
+    <t>B92</t>
+  </si>
+  <si>
+    <t>B93</t>
+  </si>
+  <si>
+    <t>B94</t>
+  </si>
+  <si>
+    <t>B95</t>
+  </si>
+  <si>
+    <t>B96</t>
+  </si>
+  <si>
+    <t>B97</t>
+  </si>
+  <si>
+    <t>B98</t>
+  </si>
+  <si>
+    <t>B99</t>
+  </si>
+  <si>
+    <t>B100</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t>B110</t>
+  </si>
+  <si>
+    <t>B111</t>
+  </si>
+  <si>
+    <t>B112</t>
+  </si>
+  <si>
+    <t>B113</t>
+  </si>
+  <si>
+    <t>B114</t>
+  </si>
+  <si>
+    <t>B115</t>
+  </si>
+  <si>
+    <t>B116</t>
+  </si>
+  <si>
+    <t>B117</t>
+  </si>
+  <si>
+    <t>B118</t>
+  </si>
+  <si>
+    <t>B119</t>
+  </si>
+  <si>
+    <t>B120</t>
+  </si>
+  <si>
+    <t>B121</t>
+  </si>
+  <si>
+    <t>B122</t>
+  </si>
+  <si>
+    <t>B123</t>
+  </si>
+  <si>
+    <t>B124</t>
+  </si>
+  <si>
+    <t>B125</t>
+  </si>
+  <si>
+    <t>B126</t>
+  </si>
+  <si>
+    <t>B127</t>
+  </si>
+  <si>
+    <t>B128</t>
+  </si>
+  <si>
+    <t>B129</t>
+  </si>
+  <si>
+    <t>B130</t>
+  </si>
+  <si>
+    <t>B131</t>
+  </si>
+  <si>
+    <t>B132</t>
+  </si>
+  <si>
+    <t>B133</t>
+  </si>
+  <si>
+    <t>B134</t>
+  </si>
+  <si>
+    <t>B135</t>
+  </si>
+  <si>
+    <t>B136</t>
+  </si>
+  <si>
+    <t>B137</t>
+  </si>
+  <si>
+    <t>B138</t>
+  </si>
+  <si>
+    <t>B139</t>
+  </si>
+  <si>
+    <t>B140</t>
+  </si>
+  <si>
+    <t>B141</t>
+  </si>
+  <si>
+    <t>B142</t>
+  </si>
+  <si>
+    <t>B143</t>
+  </si>
+  <si>
+    <t>B144</t>
+  </si>
+  <si>
+    <t>B145</t>
+  </si>
+  <si>
+    <t>B146</t>
+  </si>
+  <si>
+    <t>B147</t>
+  </si>
+  <si>
+    <t>B148</t>
+  </si>
+  <si>
+    <t>B149</t>
+  </si>
+  <si>
+    <t>B150</t>
+  </si>
+  <si>
+    <t>B151</t>
+  </si>
+  <si>
+    <t>B152</t>
+  </si>
+  <si>
+    <t>B153</t>
+  </si>
+  <si>
+    <t>B154</t>
+  </si>
+  <si>
+    <t>B155</t>
+  </si>
+  <si>
+    <t>B156</t>
+  </si>
+  <si>
+    <t>B157</t>
+  </si>
+  <si>
+    <t>B158</t>
+  </si>
+  <si>
+    <t>B159</t>
+  </si>
+  <si>
+    <t>B160</t>
+  </si>
+  <si>
+    <t>B161</t>
+  </si>
+  <si>
+    <t>B162</t>
+  </si>
+  <si>
+    <t>B163</t>
+  </si>
+  <si>
+    <t>B164</t>
+  </si>
+  <si>
+    <t>B165</t>
+  </si>
+  <si>
+    <t>B166</t>
+  </si>
+  <si>
+    <t>B167</t>
+  </si>
+  <si>
+    <t>B168</t>
+  </si>
+  <si>
+    <t>B169</t>
+  </si>
+  <si>
+    <t>B170</t>
+  </si>
+  <si>
+    <t>B171</t>
+  </si>
+  <si>
+    <t>B172</t>
+  </si>
+  <si>
+    <t>B173</t>
+  </si>
+  <si>
+    <t>B174</t>
+  </si>
+  <si>
+    <t>B175</t>
+  </si>
+  <si>
+    <t>B176</t>
+  </si>
+  <si>
+    <t>B177</t>
+  </si>
+  <si>
+    <t>B178</t>
+  </si>
+  <si>
+    <t>B179</t>
+  </si>
+  <si>
+    <t>B180</t>
+  </si>
+  <si>
+    <t>B181</t>
+  </si>
+  <si>
+    <t>B182</t>
+  </si>
+  <si>
+    <t>B183</t>
+  </si>
+  <si>
+    <t>B184</t>
+  </si>
+  <si>
+    <t>B185</t>
+  </si>
+  <si>
+    <t>B186</t>
+  </si>
+  <si>
+    <t>B187</t>
+  </si>
+  <si>
+    <t>B188</t>
+  </si>
+  <si>
+    <t>B189</t>
+  </si>
+  <si>
+    <t>B190</t>
+  </si>
+  <si>
+    <t>B191</t>
+  </si>
+  <si>
+    <t>B192</t>
+  </si>
+  <si>
+    <t>B193</t>
+  </si>
+  <si>
+    <t>B194</t>
+  </si>
+  <si>
+    <t>B195</t>
+  </si>
+  <si>
+    <t>B196</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>B198</t>
+  </si>
+  <si>
+    <t>B199</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B211</t>
+  </si>
+  <si>
+    <t>B212</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>B216</t>
+  </si>
+  <si>
+    <t>B217</t>
+  </si>
+  <si>
+    <t>B218</t>
+  </si>
+  <si>
+    <t>B219</t>
+  </si>
+  <si>
+    <t>B220</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>B222</t>
+  </si>
+  <si>
+    <t>B223</t>
+  </si>
+  <si>
+    <t>B224</t>
+  </si>
+  <si>
+    <t>B225</t>
+  </si>
+  <si>
+    <t>B226</t>
+  </si>
+  <si>
+    <t>B227</t>
+  </si>
+  <si>
+    <t>B228</t>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>B230</t>
+  </si>
+  <si>
+    <t>B231</t>
+  </si>
+  <si>
+    <t>B232</t>
+  </si>
+  <si>
+    <t>B233</t>
+  </si>
+  <si>
+    <t>B234</t>
+  </si>
+  <si>
+    <t>B235</t>
+  </si>
+  <si>
+    <t>B236</t>
+  </si>
+  <si>
+    <t>B237</t>
+  </si>
+  <si>
+    <t>B238</t>
+  </si>
+  <si>
+    <t>B239</t>
+  </si>
+  <si>
+    <t>B240</t>
+  </si>
+  <si>
+    <t>B241</t>
+  </si>
+  <si>
+    <t>B242</t>
+  </si>
+  <si>
+    <t>B243</t>
+  </si>
+  <si>
+    <t>B244</t>
+  </si>
+  <si>
+    <t>B245</t>
+  </si>
+  <si>
+    <t>B246</t>
+  </si>
+  <si>
+    <t>B247</t>
+  </si>
+  <si>
+    <t>B248</t>
+  </si>
+  <si>
+    <t>B249</t>
+  </si>
+  <si>
+    <t>B250</t>
+  </si>
+  <si>
+    <t>B251</t>
+  </si>
+  <si>
+    <t>B252</t>
+  </si>
+  <si>
+    <t>B253</t>
+  </si>
+  <si>
+    <t>B254</t>
+  </si>
+  <si>
+    <t>B255</t>
+  </si>
+  <si>
+    <t>B256</t>
+  </si>
+  <si>
+    <t>B257</t>
+  </si>
+  <si>
+    <t>B258</t>
+  </si>
+  <si>
+    <t>B259</t>
+  </si>
+  <si>
+    <t>B260</t>
+  </si>
+  <si>
+    <t>B261</t>
+  </si>
+  <si>
+    <t>B262</t>
+  </si>
+  <si>
+    <t>B263</t>
+  </si>
+  <si>
+    <t>B264</t>
+  </si>
+  <si>
+    <t>B265</t>
+  </si>
+  <si>
+    <t>B266</t>
+  </si>
+  <si>
+    <t>B267</t>
+  </si>
+  <si>
+    <t>B268</t>
+  </si>
+  <si>
+    <t>B269</t>
+  </si>
+  <si>
+    <t>B270</t>
+  </si>
+  <si>
+    <t>B271</t>
+  </si>
+  <si>
+    <t>B272</t>
+  </si>
+  <si>
+    <t>B273</t>
+  </si>
+  <si>
+    <t>B274</t>
+  </si>
+  <si>
+    <t>B275</t>
+  </si>
+  <si>
+    <t>B276</t>
+  </si>
+  <si>
+    <t>B277</t>
+  </si>
+  <si>
+    <t>B278</t>
+  </si>
+  <si>
+    <t>B279</t>
+  </si>
+  <si>
+    <t>B280</t>
+  </si>
+  <si>
+    <t>B281</t>
+  </si>
+  <si>
+    <t>B282</t>
+  </si>
+  <si>
+    <t>B283</t>
+  </si>
+  <si>
+    <t>B284</t>
+  </si>
+  <si>
+    <t>B285</t>
+  </si>
+  <si>
+    <t>B286</t>
+  </si>
+  <si>
+    <t>B287</t>
+  </si>
+  <si>
+    <t>B288</t>
+  </si>
+  <si>
+    <t>B289</t>
+  </si>
+  <si>
+    <t>B290</t>
+  </si>
+  <si>
+    <t>B291</t>
+  </si>
+  <si>
+    <t>B292</t>
+  </si>
+  <si>
+    <t>B293</t>
+  </si>
+  <si>
+    <t>B294</t>
+  </si>
+  <si>
+    <t>B295</t>
+  </si>
+  <si>
+    <t>B296</t>
+  </si>
+  <si>
+    <t>B297</t>
+  </si>
+  <si>
+    <t>B298</t>
+  </si>
+  <si>
+    <t>B299</t>
+  </si>
+  <si>
+    <t>B300</t>
+  </si>
+  <si>
+    <t>B301</t>
+  </si>
+  <si>
+    <t>B302</t>
+  </si>
+  <si>
+    <t>B303</t>
+  </si>
+  <si>
+    <t>B304</t>
+  </si>
+  <si>
+    <t>B305</t>
+  </si>
+  <si>
+    <t>B306</t>
+  </si>
+  <si>
+    <t>B307</t>
+  </si>
+  <si>
+    <t>B308</t>
+  </si>
+  <si>
+    <t>B309</t>
+  </si>
+  <si>
+    <t>B310</t>
+  </si>
+  <si>
+    <t>B311</t>
+  </si>
+  <si>
+    <t>B312</t>
+  </si>
+  <si>
+    <t>B313</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>B315</t>
+  </si>
+  <si>
+    <t>B316</t>
+  </si>
+  <si>
+    <t>B317</t>
+  </si>
+  <si>
+    <t>B318</t>
+  </si>
+  <si>
+    <t>B319</t>
+  </si>
+  <si>
+    <t>B320</t>
+  </si>
+  <si>
+    <t>B321</t>
+  </si>
+  <si>
+    <t>B322</t>
+  </si>
+  <si>
+    <t>B323</t>
+  </si>
+  <si>
+    <t>B324</t>
+  </si>
+  <si>
+    <t>B325</t>
+  </si>
+  <si>
+    <t>B326</t>
+  </si>
+  <si>
+    <t>B327</t>
+  </si>
+  <si>
+    <t>B328</t>
+  </si>
+  <si>
+    <t>B329</t>
+  </si>
+  <si>
+    <t>B330</t>
+  </si>
+  <si>
+    <t>B331</t>
+  </si>
+  <si>
+    <t>B332</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>SymbolA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymbolB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2819,7 +3884,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2939,7 +4003,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9045,9 +10108,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B316" workbookViewId="0"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="H326" sqref="H326"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9055,2675 +10120,5527 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2.8169014084507043E-2</v>
       </c>
       <c r="B2" s="5">
         <v>0.79049999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3.0516431924882601E-2</v>
       </c>
       <c r="B3" s="1">
         <v>0.78869999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3.2863849765258218E-2</v>
       </c>
       <c r="B4" s="1">
         <v>0.78669999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3.5211267605633804E-2</v>
       </c>
       <c r="B5" s="1">
         <v>0.78520000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.7558685446009391E-2</v>
       </c>
       <c r="B6" s="1">
         <v>0.78380000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3.9906103286384977E-2</v>
       </c>
       <c r="B7" s="1">
         <v>0.7823</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4.2253521126760563E-2</v>
       </c>
       <c r="B8" s="1">
         <v>0.78129999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4.4600938967136149E-2</v>
       </c>
       <c r="B9" s="1">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4.6948356807511735E-2</v>
       </c>
       <c r="B10" s="1">
         <v>0.77869999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4.9295774647887321E-2</v>
       </c>
       <c r="B11" s="1">
         <v>0.77769999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5.1643192488262914E-2</v>
       </c>
       <c r="B12" s="1">
         <v>0.77659999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5.39906103286385E-2</v>
       </c>
       <c r="B13" s="1">
         <v>0.77549999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5.6338028169014086E-2</v>
       </c>
       <c r="B14" s="1">
         <v>0.77480000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5.8685446009389672E-2</v>
       </c>
       <c r="B15" s="1">
         <v>0.77390000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6.1032863849765258E-2</v>
       </c>
       <c r="B16" s="1">
         <v>0.77280000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6.3380281690140844E-2</v>
       </c>
       <c r="B17" s="1">
         <v>0.77190000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>6.5727699530516437E-2</v>
       </c>
       <c r="B18" s="1">
         <v>0.77110000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6.8075117370892016E-2</v>
       </c>
       <c r="B19" s="1">
         <v>0.76990000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>7.0422535211267609E-2</v>
       </c>
       <c r="B20" s="1">
         <v>0.76900000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7.2769953051643188E-2</v>
       </c>
       <c r="B21" s="1">
         <v>0.76790000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7.5117370892018781E-2</v>
       </c>
       <c r="B22" s="1">
         <v>0.76680000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7.746478873239436E-2</v>
       </c>
       <c r="B23" s="1">
         <v>0.76590000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7.9812206572769953E-2</v>
       </c>
       <c r="B24" s="1">
         <v>0.76490000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8.2159624413145546E-2</v>
       </c>
       <c r="B25" s="1">
         <v>0.76380000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>8.4507042253521125E-2</v>
       </c>
       <c r="B26" s="1">
         <v>0.76259999999999994</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>8.6854460093896718E-2</v>
       </c>
       <c r="B27" s="1">
         <v>0.76149999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>8.9201877934272297E-2</v>
       </c>
       <c r="B28" s="1">
         <v>0.76029999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>9.154929577464789E-2</v>
       </c>
       <c r="B29" s="1">
         <v>0.75890000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>9.3896713615023469E-2</v>
       </c>
       <c r="B30" s="1">
         <v>0.75800000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9.6244131455399062E-2</v>
       </c>
       <c r="B31" s="1">
         <v>0.75660000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>9.8591549295774641E-2</v>
       </c>
       <c r="B32" s="1">
         <v>0.75560000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.10093896713615023</v>
       </c>
       <c r="B33" s="1">
         <v>0.75429999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.10328638497652583</v>
       </c>
       <c r="B34" s="1">
         <v>0.75329999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.10563380281690141</v>
       </c>
       <c r="B35" s="1">
         <v>0.75219999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.107981220657277</v>
       </c>
       <c r="B36" s="1">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.11032863849765258</v>
       </c>
       <c r="B37" s="1">
         <v>0.74980000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.11267605633802817</v>
       </c>
       <c r="B38" s="1">
         <v>0.74850000000000005</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.11502347417840375</v>
       </c>
       <c r="B39" s="1">
         <v>0.74729999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.11737089201877934</v>
       </c>
       <c r="B40" s="1">
         <v>0.74609999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0.11971830985915492</v>
       </c>
       <c r="B41" s="1">
         <v>0.74460000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>0.12206572769953052</v>
       </c>
       <c r="B42" s="1">
         <v>0.74299999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0.12441314553990611</v>
       </c>
       <c r="B43" s="1">
         <v>0.74139999999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.12676056338028169</v>
       </c>
       <c r="B44" s="1">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.12910798122065728</v>
       </c>
       <c r="B45" s="1">
         <v>0.73850000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.13145539906103287</v>
       </c>
       <c r="B46" s="1">
         <v>0.7369</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.13380281690140844</v>
       </c>
       <c r="B47" s="1">
         <v>0.73560000000000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.13615023474178403</v>
       </c>
       <c r="B48" s="1">
         <v>0.73370000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.13849765258215962</v>
       </c>
       <c r="B49" s="1">
         <v>0.73250000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.14084507042253522</v>
       </c>
       <c r="B50" s="1">
         <v>0.73080000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.14319248826291081</v>
       </c>
       <c r="B51" s="1">
         <v>0.72919999999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.14553990610328638</v>
       </c>
       <c r="B52" s="1">
         <v>0.72719999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.14788732394366197</v>
       </c>
       <c r="B53" s="1">
         <v>0.72550000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.15023474178403756</v>
       </c>
       <c r="B54" s="1">
         <v>0.72350000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.15258215962441316</v>
       </c>
       <c r="B55" s="1">
         <v>0.72199999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.15492957746478872</v>
       </c>
       <c r="B56" s="1">
         <v>0.7198</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.15727699530516431</v>
       </c>
       <c r="B57" s="1">
         <v>0.71819999999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.15962441314553991</v>
       </c>
       <c r="B58" s="1">
         <v>0.71619999999999995</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.1619718309859155</v>
       </c>
       <c r="B59" s="1">
         <v>0.71440000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.16431924882629109</v>
       </c>
       <c r="B60" s="1">
         <v>0.71209999999999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="B61" s="1">
         <v>0.71020000000000005</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.16901408450704225</v>
       </c>
       <c r="B62" s="1">
         <v>0.70789999999999997</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.17136150234741784</v>
       </c>
       <c r="B63" s="1">
         <v>0.70579999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.17370892018779344</v>
       </c>
       <c r="B64" s="1">
         <v>0.70379999999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.176056338028169</v>
       </c>
       <c r="B65" s="1">
         <v>0.70150000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.17840375586854459</v>
       </c>
       <c r="B66" s="1">
         <v>0.69920000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.18075117370892019</v>
       </c>
       <c r="B67" s="1">
         <v>0.69699999999999995</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.18309859154929578</v>
       </c>
       <c r="B68" s="1">
         <v>0.69440000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.18544600938967137</v>
       </c>
       <c r="B69" s="1">
         <v>0.69220000000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.18779342723004694</v>
       </c>
       <c r="B70" s="1">
         <v>0.68979999999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.19014084507042253</v>
       </c>
       <c r="B71" s="1">
         <v>0.68730000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.19248826291079812</v>
       </c>
       <c r="B72" s="1">
         <v>0.68510000000000004</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.19483568075117372</v>
       </c>
       <c r="B73" s="1">
         <v>0.68259999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.19718309859154928</v>
       </c>
       <c r="B74" s="1">
         <v>0.67989999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.19953051643192488</v>
       </c>
       <c r="B75" s="1">
         <v>0.67759999999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.20187793427230047</v>
       </c>
       <c r="B76" s="1">
         <v>0.67510000000000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.20422535211267606</v>
       </c>
       <c r="B77" s="1">
         <v>0.67249999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.20657276995305165</v>
       </c>
       <c r="B78" s="1">
         <v>0.66990000000000005</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.20892018779342722</v>
       </c>
       <c r="B79" s="1">
         <v>0.66779999999999995</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.21126760563380281</v>
       </c>
       <c r="B80" s="1">
         <v>0.66520000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.21361502347417841</v>
       </c>
       <c r="B81" s="1">
         <v>0.66259999999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.215962441314554</v>
       </c>
       <c r="B82" s="1">
         <v>0.6603</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.21830985915492956</v>
       </c>
       <c r="B83" s="1">
         <v>0.65790000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.22065727699530516</v>
       </c>
       <c r="B84" s="1">
         <v>0.65549999999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.22300469483568075</v>
       </c>
       <c r="B85" s="1">
         <v>0.65300000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.22535211267605634</v>
       </c>
       <c r="B86" s="1">
         <v>0.65059999999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.22769953051643194</v>
       </c>
       <c r="B87" s="1">
         <v>0.64829999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.2300469483568075</v>
       </c>
       <c r="B88" s="1">
         <v>0.64580000000000004</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.23239436619718309</v>
       </c>
       <c r="B89" s="1">
         <v>0.64370000000000005</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.23474178403755869</v>
       </c>
       <c r="B90" s="1">
         <v>0.64129999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.23708920187793428</v>
       </c>
       <c r="B91" s="1">
         <v>0.6391</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.23943661971830985</v>
       </c>
       <c r="B92" s="1">
         <v>0.63680000000000003</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.24178403755868544</v>
       </c>
       <c r="B93" s="1">
         <v>0.63470000000000004</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.24413145539906103</v>
       </c>
       <c r="B94" s="1">
         <v>0.63290000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.24647887323943662</v>
       </c>
       <c r="B95" s="1">
         <v>0.63070000000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.24882629107981222</v>
       </c>
       <c r="B96" s="1">
         <v>0.62870000000000004</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.25117370892018781</v>
       </c>
       <c r="B97" s="1">
         <v>0.62690000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.25352112676056338</v>
       </c>
       <c r="B98" s="1">
         <v>0.62519999999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.25586854460093894</v>
       </c>
       <c r="B99" s="1">
         <v>0.62309999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.25821596244131456</v>
       </c>
       <c r="B100" s="1">
         <v>0.62160000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.26056338028169013</v>
       </c>
       <c r="B101" s="1">
         <v>0.61939999999999995</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.26291079812206575</v>
       </c>
       <c r="B102" s="1">
         <v>0.6179</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.26525821596244131</v>
       </c>
       <c r="B103" s="1">
         <v>0.61619999999999997</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.26760563380281688</v>
       </c>
       <c r="B104" s="1">
         <v>0.61460000000000004</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.2699530516431925</v>
       </c>
       <c r="B105" s="1">
         <v>0.61299999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.27230046948356806</v>
       </c>
       <c r="B106" s="1">
         <v>0.61170000000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.27464788732394368</v>
       </c>
       <c r="B107" s="1">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.27699530516431925</v>
       </c>
       <c r="B108" s="1">
         <v>0.60880000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.27934272300469482</v>
       </c>
       <c r="B109" s="1">
         <v>0.60719999999999996</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.28169014084507044</v>
       </c>
       <c r="B110" s="1">
         <v>0.60589999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.284037558685446</v>
       </c>
       <c r="B111" s="1">
         <v>0.60460000000000003</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.28638497652582162</v>
       </c>
       <c r="B112" s="1">
         <v>0.60340000000000005</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.28873239436619719</v>
       </c>
       <c r="B113" s="1">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.29107981220657275</v>
       </c>
       <c r="B114" s="1">
         <v>0.60099999999999998</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.29342723004694837</v>
       </c>
       <c r="B115" s="1">
         <v>0.60009999999999997</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.29577464788732394</v>
       </c>
       <c r="B116" s="1">
         <v>0.5988</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.2981220657276995</v>
       </c>
       <c r="B117" s="1">
         <v>0.59760000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.30046948356807512</v>
       </c>
       <c r="B118" s="1">
         <v>0.59660000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.30281690140845069</v>
       </c>
       <c r="B119" s="1">
         <v>0.59550000000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.30516431924882631</v>
       </c>
       <c r="B120" s="1">
         <v>0.59489999999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.30751173708920188</v>
       </c>
       <c r="B121" s="1">
         <v>0.59379999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.30985915492957744</v>
       </c>
       <c r="B122" s="1">
         <v>0.59299999999999997</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.31220657276995306</v>
       </c>
       <c r="B123" s="1">
         <v>0.59209999999999996</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.31455399061032863</v>
       </c>
       <c r="B124" s="1">
         <v>0.59150000000000003</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.31690140845070425</v>
       </c>
       <c r="B125" s="1">
         <v>0.59060000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.31924882629107981</v>
       </c>
       <c r="B126" s="1">
         <v>0.58979999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.32159624413145538</v>
       </c>
       <c r="B127" s="1">
         <v>0.58879999999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.323943661971831</v>
       </c>
       <c r="B128" s="1">
         <v>0.58789999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.32629107981220656</v>
       </c>
       <c r="B129" s="1">
         <v>0.58709999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.32863849765258218</v>
       </c>
       <c r="B130" s="1">
         <v>0.58650000000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.33098591549295775</v>
       </c>
       <c r="B131" s="1">
         <v>0.58530000000000004</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="B132" s="1">
         <v>0.58450000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.33568075117370894</v>
       </c>
       <c r="B133" s="1">
         <v>0.58389999999999997</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.3380281690140845</v>
       </c>
       <c r="B134" s="1">
         <v>0.58330000000000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.34037558685446012</v>
       </c>
       <c r="B135" s="1">
         <v>0.58240000000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.34272300469483569</v>
       </c>
       <c r="B136" s="1">
         <v>0.58220000000000005</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.34507042253521125</v>
       </c>
       <c r="B137" s="1">
         <v>0.58140000000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.34741784037558687</v>
       </c>
       <c r="B138" s="1">
         <v>0.58079999999999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.34976525821596244</v>
       </c>
       <c r="B139" s="1">
         <v>0.58020000000000005</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.352112676056338</v>
       </c>
       <c r="B140" s="1">
         <v>0.5796</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.35446009389671362</v>
       </c>
       <c r="B141" s="1">
         <v>0.57869999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.35680751173708919</v>
       </c>
       <c r="B142" s="1">
         <v>0.57779999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.35915492957746481</v>
       </c>
       <c r="B143" s="1">
         <v>0.57730000000000004</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.36150234741784038</v>
       </c>
       <c r="B144" s="1">
         <v>0.57669999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.36384976525821594</v>
       </c>
       <c r="B145" s="1">
         <v>0.57630000000000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.36619718309859156</v>
       </c>
       <c r="B146" s="1">
         <v>0.57599999999999996</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.36854460093896713</v>
       </c>
       <c r="B147" s="1">
         <v>0.57520000000000004</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.37089201877934275</v>
       </c>
       <c r="B148" s="1">
         <v>0.57489999999999997</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.37323943661971831</v>
       </c>
       <c r="B149" s="1">
         <v>0.57430000000000003</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.37558685446009388</v>
       </c>
       <c r="B150" s="1">
         <v>0.57350000000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.3779342723004695</v>
       </c>
       <c r="B151" s="1">
         <v>0.57310000000000005</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.38028169014084506</v>
       </c>
       <c r="B152" s="1">
         <v>0.57310000000000005</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.38262910798122068</v>
       </c>
       <c r="B153" s="1">
         <v>0.57240000000000002</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.38497652582159625</v>
       </c>
       <c r="B154" s="1">
         <v>0.57179999999999997</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.38732394366197181</v>
       </c>
       <c r="B155" s="1">
         <v>0.57150000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.38967136150234744</v>
       </c>
       <c r="B156" s="1">
         <v>0.57089999999999996</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.392018779342723</v>
       </c>
       <c r="B157" s="1">
         <v>0.57050000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.39436619718309857</v>
       </c>
       <c r="B158" s="1">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.39671361502347419</v>
       </c>
       <c r="B159" s="1">
         <v>0.56969999999999998</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.39906103286384975</v>
       </c>
       <c r="B160" s="1">
         <v>0.56920000000000004</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.40140845070422537</v>
       </c>
       <c r="B161" s="1">
         <v>0.56879999999999997</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.40375586854460094</v>
       </c>
       <c r="B162" s="1">
         <v>0.56850000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.4061032863849765</v>
       </c>
       <c r="B163" s="1">
         <v>0.56730000000000003</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.40845070422535212</v>
       </c>
       <c r="B164" s="1">
         <v>0.56710000000000005</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.41079812206572769</v>
       </c>
       <c r="B165" s="1">
         <v>0.56679999999999997</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.41314553990610331</v>
       </c>
       <c r="B166" s="1">
         <v>0.56620000000000004</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.41549295774647887</v>
       </c>
       <c r="B167" s="1">
         <v>0.56569999999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.41784037558685444</v>
       </c>
       <c r="B168" s="1">
         <v>0.56540000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.42018779342723006</v>
       </c>
       <c r="B169" s="1">
         <v>0.56510000000000005</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.42253521126760563</v>
       </c>
       <c r="B170" s="1">
         <v>0.56479999999999997</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.42488262910798125</v>
       </c>
       <c r="B171" s="1">
         <v>0.5645</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.42723004694835681</v>
       </c>
       <c r="B172" s="1">
         <v>0.56420000000000003</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.42957746478873238</v>
       </c>
       <c r="B173" s="1">
         <v>0.56340000000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.431924882629108</v>
       </c>
       <c r="B174" s="1">
         <v>0.56310000000000004</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.43427230046948356</v>
       </c>
       <c r="B175" s="1">
         <v>0.56279999999999997</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.43661971830985913</v>
       </c>
       <c r="B176" s="1">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.43896713615023475</v>
       </c>
       <c r="B177" s="1">
         <v>0.56189999999999996</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.44131455399061031</v>
       </c>
       <c r="B178" s="1">
         <v>0.56159999999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.44366197183098594</v>
       </c>
       <c r="B179" s="1">
         <v>0.56130000000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.4460093896713615</v>
       </c>
       <c r="B180" s="1">
         <v>0.56020000000000003</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.44835680751173707</v>
       </c>
       <c r="B181" s="1">
         <v>0.55979999999999996</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.45070422535211269</v>
       </c>
       <c r="B182" s="1">
         <v>0.5595</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.45305164319248825</v>
       </c>
       <c r="B183" s="1">
         <v>0.55920000000000003</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.45539906103286387</v>
       </c>
       <c r="B184" s="1">
         <v>0.55859999999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.45774647887323944</v>
       </c>
       <c r="B185" s="1">
         <v>0.55840000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.460093896713615</v>
       </c>
       <c r="B186" s="1">
         <v>0.55789999999999995</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.46244131455399062</v>
       </c>
       <c r="B187" s="1">
         <v>0.5575</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.46478873239436619</v>
       </c>
       <c r="B188" s="1">
         <v>0.55689999999999995</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.46713615023474181</v>
       </c>
       <c r="B189" s="1">
         <v>0.55640000000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.46948356807511737</v>
       </c>
       <c r="B190" s="1">
         <v>0.55600000000000005</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.47183098591549294</v>
       </c>
       <c r="B191" s="1">
         <v>0.55549999999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.47417840375586856</v>
       </c>
       <c r="B192" s="1">
         <v>0.55500000000000005</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.47652582159624413</v>
       </c>
       <c r="B193" s="1">
         <v>0.5544</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.47887323943661969</v>
       </c>
       <c r="B194" s="1">
         <v>0.55410000000000004</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.48122065727699531</v>
       </c>
       <c r="B195" s="1">
         <v>0.55379999999999996</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.48356807511737088</v>
       </c>
       <c r="B196" s="1">
         <v>0.55289999999999995</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.4859154929577465</v>
       </c>
       <c r="B197" s="1">
         <v>0.55259999999999998</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.48826291079812206</v>
       </c>
       <c r="B198" s="1">
         <v>0.55210000000000004</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.49061032863849763</v>
       </c>
       <c r="B199" s="1">
         <v>0.55169999999999997</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.49295774647887325</v>
       </c>
       <c r="B200" s="1">
         <v>0.55120000000000002</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.49530516431924881</v>
       </c>
       <c r="B201" s="1">
         <v>0.55079999999999996</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.49765258215962443</v>
       </c>
       <c r="B202" s="1">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.5</v>
       </c>
       <c r="B203" s="1">
         <v>0.54959999999999998</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.50234741784037562</v>
       </c>
       <c r="B204" s="1">
         <v>0.54890000000000005</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.50469483568075113</v>
       </c>
       <c r="B205" s="1">
         <v>0.54849999999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.50704225352112675</v>
       </c>
       <c r="B206" s="1">
         <v>0.54790000000000005</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.50938967136150237</v>
       </c>
       <c r="B207" s="1">
         <v>0.5474</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.51173708920187788</v>
       </c>
       <c r="B208" s="1">
         <v>0.54669999999999996</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.5140845070422535</v>
       </c>
       <c r="B209" s="1">
         <v>0.54649999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.51643192488262912</v>
       </c>
       <c r="B210" s="1">
         <v>0.54569999999999996</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.51877934272300474</v>
       </c>
       <c r="B211" s="1">
         <v>0.54530000000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.52112676056338025</v>
       </c>
       <c r="B212" s="1">
         <v>0.54469999999999996</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.52347417840375587</v>
       </c>
       <c r="B213" s="1">
         <v>0.54410000000000003</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.5258215962441315</v>
       </c>
       <c r="B214" s="1">
         <v>0.54359999999999997</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.528169014084507</v>
       </c>
       <c r="B215" s="1">
         <v>0.54279999999999995</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.53051643192488263</v>
       </c>
       <c r="B216" s="1">
         <v>0.54220000000000002</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.53286384976525825</v>
       </c>
       <c r="B217" s="1">
         <v>0.54149999999999998</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.53521126760563376</v>
       </c>
       <c r="B218" s="1">
         <v>0.54120000000000001</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.53755868544600938</v>
       </c>
       <c r="B219" s="1">
         <v>0.54069999999999996</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.539906103286385</v>
       </c>
       <c r="B220" s="1">
         <v>0.53979999999999995</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.54225352112676062</v>
       </c>
       <c r="B221" s="1">
         <v>0.53959999999999997</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.54460093896713613</v>
       </c>
       <c r="B222" s="1">
         <v>0.53869999999999996</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.54694835680751175</v>
       </c>
       <c r="B223" s="1">
         <v>0.5383</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.54929577464788737</v>
       </c>
       <c r="B224" s="1">
         <v>0.53749999999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.55164319248826288</v>
       </c>
       <c r="B225" s="1">
         <v>0.53700000000000003</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.5539906103286385</v>
       </c>
       <c r="B226" s="1">
         <v>0.53639999999999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.55633802816901412</v>
       </c>
       <c r="B227" s="1">
         <v>0.53569999999999995</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.55868544600938963</v>
       </c>
       <c r="B228" s="1">
         <v>0.53539999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.56103286384976525</v>
       </c>
       <c r="B229" s="1">
         <v>0.53480000000000005</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.56338028169014087</v>
       </c>
       <c r="B230" s="1">
         <v>0.53410000000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.56572769953051638</v>
       </c>
       <c r="B231" s="1">
         <v>0.53349999999999997</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.568075117370892</v>
       </c>
       <c r="B232" s="1">
         <v>0.53290000000000004</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.57042253521126762</v>
       </c>
       <c r="B233" s="1">
         <v>0.53249999999999997</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.57276995305164324</v>
       </c>
       <c r="B234" s="1">
         <v>0.53190000000000004</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.57511737089201875</v>
       </c>
       <c r="B235" s="1">
         <v>0.53149999999999997</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.57746478873239437</v>
       </c>
       <c r="B236" s="1">
         <v>0.53080000000000005</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.57981220657276999</v>
       </c>
       <c r="B237" s="1">
         <v>0.53029999999999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.5821596244131455</v>
       </c>
       <c r="B238" s="1">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.58450704225352113</v>
       </c>
       <c r="B239" s="1">
         <v>0.52969999999999995</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.58685446009389675</v>
       </c>
       <c r="B240" s="1">
         <v>0.52969999999999995</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.58920187793427226</v>
       </c>
       <c r="B241" s="1">
         <v>0.52959999999999996</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.59154929577464788</v>
       </c>
       <c r="B242" s="1">
         <v>0.52939999999999998</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.5938967136150235</v>
       </c>
       <c r="B243" s="1">
         <v>0.52939999999999998</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.59624413145539901</v>
       </c>
       <c r="B244" s="1">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.59859154929577463</v>
       </c>
       <c r="B245" s="1">
         <v>0.53029999999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.60093896713615025</v>
       </c>
       <c r="B246" s="1">
         <v>0.53090000000000004</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.60328638497652587</v>
       </c>
       <c r="B247" s="1">
         <v>0.53149999999999997</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.60563380281690138</v>
       </c>
       <c r="B248" s="1">
         <v>0.53249999999999997</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.607981220657277</v>
       </c>
       <c r="B249" s="1">
         <v>0.53320000000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.61032863849765262</v>
       </c>
       <c r="B250" s="1">
         <v>0.53380000000000005</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.61267605633802813</v>
       </c>
       <c r="B251" s="1">
         <v>0.53439999999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.61502347417840375</v>
       </c>
       <c r="B252" s="1">
         <v>0.53510000000000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.61737089201877937</v>
       </c>
       <c r="B253" s="1">
         <v>0.53549999999999998</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.61971830985915488</v>
       </c>
       <c r="B254" s="1">
         <v>0.53639999999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.6220657276995305</v>
       </c>
       <c r="B255" s="1">
         <v>0.53690000000000004</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.62441314553990612</v>
       </c>
       <c r="B256" s="1">
         <v>0.5373</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.62676056338028174</v>
       </c>
       <c r="B257" s="1">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.62910798122065725</v>
       </c>
       <c r="B258" s="1">
         <v>0.53810000000000002</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.63145539906103287</v>
       </c>
       <c r="B259" s="1">
         <v>0.53859999999999997</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.63380281690140849</v>
       </c>
       <c r="B260" s="1">
         <v>0.53949999999999998</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.636150234741784</v>
       </c>
       <c r="B261" s="1">
         <v>0.53949999999999998</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.63849765258215962</v>
       </c>
       <c r="B262" s="1">
         <v>0.53990000000000005</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.64084507042253525</v>
       </c>
       <c r="B263" s="1">
         <v>0.54010000000000002</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.64319248826291076</v>
       </c>
       <c r="B264" s="1">
         <v>0.54020000000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.64553990610328638</v>
       </c>
       <c r="B265" s="1">
         <v>0.54020000000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.647887323943662</v>
       </c>
       <c r="B266" s="1">
         <v>0.54039999999999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.65023474178403751</v>
       </c>
       <c r="B267" s="1">
         <v>0.54020000000000001</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.65258215962441313</v>
       </c>
       <c r="B268" s="1">
         <v>0.54069999999999996</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.65492957746478875</v>
       </c>
       <c r="B269" s="1">
         <v>0.54069999999999996</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.65727699530516437</v>
       </c>
       <c r="B270" s="1">
         <v>0.54059999999999997</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.65962441314553988</v>
       </c>
       <c r="B271" s="1">
         <v>0.54069999999999996</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.6619718309859155</v>
       </c>
       <c r="B272" s="1">
         <v>0.54059999999999997</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.66431924882629112</v>
       </c>
       <c r="B273" s="1">
         <v>0.54059999999999997</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="B274" s="1">
         <v>0.54039999999999999</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.66901408450704225</v>
       </c>
       <c r="B275" s="1">
         <v>0.54020000000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.67136150234741787</v>
       </c>
       <c r="B276" s="1">
         <v>0.54010000000000002</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.67370892018779338</v>
       </c>
       <c r="B277" s="1">
         <v>0.53959999999999997</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.676056338028169</v>
       </c>
       <c r="B278" s="1">
         <v>0.53979999999999995</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.67840375586854462</v>
       </c>
       <c r="B279" s="1">
         <v>0.53979999999999995</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.68075117370892024</v>
       </c>
       <c r="B280" s="1">
         <v>0.53959999999999997</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.68309859154929575</v>
       </c>
       <c r="B281" s="1">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.68544600938967137</v>
       </c>
       <c r="B282" s="1">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.68779342723004699</v>
       </c>
       <c r="B283" s="1">
         <v>0.53890000000000005</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.6901408450704225</v>
       </c>
       <c r="B284" s="1">
         <v>0.53859999999999997</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.69248826291079812</v>
       </c>
       <c r="B285" s="1">
         <v>0.53810000000000002</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.69483568075117375</v>
       </c>
       <c r="B286" s="1">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.69718309859154926</v>
       </c>
       <c r="B287" s="1">
         <v>0.53749999999999998</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.69953051643192488</v>
       </c>
       <c r="B288" s="1">
         <v>0.5373</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.7018779342723005</v>
       </c>
       <c r="B289" s="1">
         <v>0.53720000000000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.70422535211267601</v>
       </c>
       <c r="B290" s="1">
         <v>0.53690000000000004</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.70657276995305163</v>
       </c>
       <c r="B291" s="1">
         <v>0.53669999999999995</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.70892018779342725</v>
       </c>
       <c r="B292" s="1">
         <v>0.5363</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.71126760563380287</v>
       </c>
       <c r="B293" s="1">
         <v>0.53549999999999998</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.71361502347417838</v>
       </c>
       <c r="B294" s="1">
         <v>0.53520000000000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.715962441314554</v>
       </c>
       <c r="B295" s="1">
         <v>0.53490000000000004</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.71830985915492962</v>
       </c>
       <c r="B296" s="1">
         <v>0.53439999999999999</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.72065727699530513</v>
       </c>
       <c r="B297" s="1">
         <v>0.5343</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.72300469483568075</v>
       </c>
       <c r="B298" s="1">
         <v>0.53369999999999995</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.72535211267605637</v>
       </c>
       <c r="B299" s="1">
         <v>0.53310000000000002</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.72769953051643188</v>
       </c>
       <c r="B300" s="1">
         <v>0.53259999999999996</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.7300469483568075</v>
       </c>
       <c r="B301" s="1">
         <v>0.53190000000000004</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.73239436619718312</v>
       </c>
       <c r="B302" s="1">
         <v>0.53169999999999995</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.73474178403755863</v>
       </c>
       <c r="B303" s="1">
         <v>0.53090000000000004</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.73708920187793425</v>
       </c>
       <c r="B304" s="1">
         <v>0.53029999999999999</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.73943661971830987</v>
       </c>
       <c r="B305" s="1">
         <v>0.52969999999999995</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.74178403755868549</v>
       </c>
       <c r="B306" s="1">
         <v>0.52910000000000001</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.744131455399061</v>
       </c>
       <c r="B307" s="1">
         <v>0.5282</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.74647887323943662</v>
       </c>
       <c r="B308" s="1">
         <v>0.52729999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.74882629107981225</v>
       </c>
       <c r="B309" s="1">
         <v>0.52649999999999997</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.75117370892018775</v>
       </c>
       <c r="B310" s="1">
         <v>0.52569999999999995</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.75352112676056338</v>
       </c>
       <c r="B311" s="1">
         <v>0.52449999999999997</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.755868544600939</v>
       </c>
       <c r="B312" s="1">
         <v>0.52390000000000003</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.75821596244131451</v>
       </c>
       <c r="B313" s="1">
         <v>0.52290000000000003</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.76056338028169013</v>
       </c>
       <c r="B314" s="1">
         <v>0.52190000000000003</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.76291079812206575</v>
       </c>
       <c r="B315" s="1">
         <v>0.52090000000000003</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.76525821596244137</v>
       </c>
       <c r="B316" s="1">
         <v>0.51980000000000004</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.76760563380281688</v>
       </c>
       <c r="B317" s="1">
         <v>0.51859999999999995</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.7699530516431925</v>
       </c>
       <c r="B318" s="1">
         <v>0.51739999999999997</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.77230046948356812</v>
       </c>
       <c r="B319" s="1">
         <v>0.51600000000000001</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.77464788732394363</v>
       </c>
       <c r="B320" s="1">
         <v>0.51449999999999996</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.77699530516431925</v>
       </c>
       <c r="B321" s="1">
         <v>0.5131</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.77934272300469487</v>
       </c>
       <c r="B322" s="1">
         <v>0.51090000000000002</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.78169014084507038</v>
       </c>
       <c r="B323" s="1">
         <v>0.50939999999999996</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.784037558685446</v>
       </c>
       <c r="B324" s="1">
         <v>0.50700000000000001</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.78638497652582162</v>
       </c>
       <c r="B325" s="1">
         <v>0.505</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.78873239436619713</v>
       </c>
       <c r="B326" s="1">
         <v>0.50270000000000004</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.79107981220657275</v>
       </c>
       <c r="B327" s="1">
         <v>0.50029999999999997</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.79342723004694837</v>
       </c>
       <c r="B328" s="1">
         <v>0.49719999999999998</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.79577464788732399</v>
       </c>
       <c r="B329" s="1">
         <v>0.49419999999999997</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.7981220657276995</v>
       </c>
       <c r="B330" s="1">
         <v>0.49080000000000001</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.80046948356807512</v>
       </c>
       <c r="B331" s="1">
         <v>0.48730000000000001</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.80281690140845074</v>
       </c>
       <c r="B332" s="1">
         <v>0.4829</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.80516431924882625</v>
       </c>
       <c r="B333" s="1">
         <v>0.4778</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="5">
         <v>0.80751173708920188</v>
       </c>
       <c r="B334" s="5">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>2.8169014084507043E-2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>9.8591549295774641E-2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>0.23943661971830985</v>
+      </c>
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>0.30985915492957744</v>
+      </c>
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>0.38028169014084506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>0.45070422535211269</v>
+      </c>
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>0.52112676056338025</v>
+      </c>
+      <c r="B9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>0.59154929577464788</v>
+      </c>
+      <c r="B10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>0.73239436619718312</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>0.80751173708920188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A334"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.79049999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.78869999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.78669999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.78520000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.78380000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.7823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.78129999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.77869999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.77769999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.77659999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.77549999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.77480000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.77390000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.77280000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.77190000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.77110000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.76990000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.76790000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.76680000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.76590000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.76490000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.76380000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0.76259999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>0.76149999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0.76029999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0.75890000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>0.75660000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0.75560000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0.75429999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0.75329999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>0.75219999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0.74980000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0.74850000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>0.74729999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0.74609999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0.74460000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0.74139999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>0.73850000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0.7369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>0.73560000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>0.73370000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>0.73250000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>0.73080000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>0.72919999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>0.72719999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>0.72550000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>0.72350000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>0.7198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>0.71819999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>0.71619999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>0.71209999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>0.71020000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>0.70789999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>0.70579999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>0.70379999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>0.70150000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>0.69920000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>0.69440000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>0.68979999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>0.68730000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>0.68510000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>0.68259999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>0.67989999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>0.67759999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>0.67510000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>0.67249999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>0.66990000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>0.66779999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>0.66520000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>0.66259999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>0.6603</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>0.65790000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>0.65549999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>0.65059999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>0.64829999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>0.64580000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>0.64370000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>0.64129999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>0.6391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>0.63680000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>0.63470000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>0.63290000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>0.63070000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>0.62870000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>0.62690000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>0.62519999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>0.62309999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>0.62160000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>0.61939999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>0.6179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>0.61619999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>0.61460000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>0.61170000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>0.60880000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>0.60719999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>0.60589999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>0.60460000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>0.60340000000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>0.60009999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>0.5988</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>0.59760000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>0.59660000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>0.59550000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>0.59489999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>0.59379999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>0.59209999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>0.59150000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>0.59060000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>0.58979999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>0.58879999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>0.58789999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>0.58709999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>0.58650000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>0.58530000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>0.58450000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>0.58389999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>0.58330000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>0.58240000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>0.58220000000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>0.58140000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>0.58079999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>0.58020000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>0.5796</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>0.57869999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>0.57779999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>0.57730000000000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>0.57669999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>0.57630000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>0.57520000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>0.57489999999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>0.57430000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>0.57350000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>0.57310000000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>0.57310000000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>0.57240000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>0.57179999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>0.57150000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>0.57089999999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>0.57050000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>0.56969999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>0.56920000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>0.56879999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>0.56850000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>0.56730000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>0.56710000000000005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>0.56679999999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>0.56620000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>0.56569999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>0.56540000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>0.56510000000000005</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>0.56479999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>0.5645</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>0.56420000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>0.56340000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>0.56310000000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>0.56279999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>0.56189999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>0.56159999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>0.56130000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>0.56020000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>0.55979999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>0.5595</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>0.55920000000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>0.55859999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>0.55840000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>0.55789999999999995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>0.5575</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>0.55689999999999995</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>0.55640000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>0.55549999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>0.5544</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>0.55410000000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>0.55379999999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>0.55289999999999995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>0.55259999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>0.55210000000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>0.55169999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>0.55120000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>0.55079999999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>0.54959999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>0.54890000000000005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>0.54849999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>0.54790000000000005</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>0.5474</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>0.54669999999999996</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>0.54649999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>0.54569999999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>0.54530000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>0.54410000000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>0.54359999999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>0.54279999999999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>0.54220000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>0.54149999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>0.54120000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>0.53979999999999995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>0.53959999999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>0.53869999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>0.5383</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>0.53749999999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>0.53639999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>0.53569999999999995</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>0.53539999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>0.53480000000000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>0.53410000000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>0.53349999999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>0.53290000000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>0.53249999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>0.53190000000000004</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>0.53149999999999997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>0.53080000000000005</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>0.52969999999999995</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>0.52969999999999995</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>0.52959999999999996</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>0.52939999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>0.52939999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>0.53090000000000004</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>0.53149999999999997</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>0.53249999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>0.53320000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>0.53380000000000005</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>0.53439999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>0.53510000000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>0.53549999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>0.53639999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>0.53690000000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>0.5373</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>0.53810000000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>0.53859999999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>0.53949999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>0.53949999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>0.53990000000000005</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>0.54020000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>0.54020000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>0.54039999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>0.54020000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>0.54039999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>0.54020000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>0.53959999999999997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>0.53979999999999995</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>0.53979999999999995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>0.53959999999999997</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>0.53890000000000005</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>0.53859999999999997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>0.53810000000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>0.53749999999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>0.5373</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>0.53720000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>0.53690000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>0.53669999999999995</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>0.5363</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>0.53549999999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>0.53520000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>0.53490000000000004</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>0.53439999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>0.5343</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>0.53369999999999995</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>0.53310000000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>0.53259999999999996</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>0.53190000000000004</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>0.53169999999999995</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>0.53090000000000004</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>0.52969999999999995</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>0.52910000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>0.5282</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>0.52729999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>0.52649999999999997</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>0.52569999999999995</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>0.52449999999999997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>0.52390000000000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>0.52290000000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>0.52190000000000003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>0.52090000000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>0.51980000000000004</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>0.51859999999999995</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>0.51739999999999997</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>0.51449999999999996</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>0.5131</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>0.51090000000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>0.50939999999999996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>0.50270000000000004</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>0.49719999999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>0.49419999999999997</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>0.49080000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>0.48730000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>0.4829</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>0.4778</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
         <v>0.47299999999999998</v>
       </c>
     </row>
